--- a/Alarm/V1.1/BOM表/报警器BOM表.xlsx
+++ b/Alarm/V1.1/BOM表/报警器BOM表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\wc\Alarm\原理图修改中\BOM表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\wc\Alarm\V1.1\BOM表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A91260A-C849-4362-A0C9-8B254AC4A353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F61067-2297-47E3-BA96-5CE44FF732DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86B3CF72-3759-4A1C-8F38-0DD62C3C61F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="153">
   <si>
     <t>Value</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>C41-42</t>
-  </si>
-  <si>
-    <t>10uF/16V</t>
   </si>
   <si>
     <t>钽电解/10%</t>
@@ -489,6 +486,14 @@
   </si>
   <si>
     <t>P8 0.5间距 长10cm 反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3528T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF/10V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +861,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4">
         <v>28</v>
@@ -989,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5">
         <v>11</v>
@@ -1052,22 +1057,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1075,25 +1080,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -1104,19 +1109,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1127,22 +1132,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1153,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1179,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>402</v>
@@ -1191,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1205,19 +1210,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1228,22 +1233,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
         <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1254,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1280,22 +1285,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1306,22 +1311,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>69</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1332,22 +1337,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1358,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1373,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1384,22 +1389,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>79</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1410,22 +1415,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>85</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1436,22 +1441,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -1462,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
         <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1488,22 +1493,22 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
         <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -1514,22 +1519,22 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>93</v>
       </c>
       <c r="I26">
         <v>11</v>
@@ -1540,22 +1545,22 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>95</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1566,22 +1571,22 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>97</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1592,22 +1597,22 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
       </c>
       <c r="I29">
         <v>8</v>
@@ -1618,22 +1623,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
         <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>101</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1644,22 +1649,22 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>103</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1670,22 +1675,22 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>105</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1696,22 +1701,22 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1722,22 +1727,22 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>109</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1748,22 +1753,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>111</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1774,22 +1779,22 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1800,22 +1805,22 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1826,22 +1831,22 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>117</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -1852,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>119</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1878,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1889,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
         <v>132</v>
       </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>133</v>
-      </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -1915,22 +1920,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
         <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s">
-        <v>124</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1941,22 +1946,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s">
         <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" t="s">
-        <v>127</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -1967,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>129</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" t="s">
         <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H44" t="s">
-        <v>131</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1993,22 +1998,22 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>141</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
         <v>142</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>143</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2019,22 +2024,22 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2043,5 +2048,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>